--- a/data/trans_orig/P14C08-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C08-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79448638-AC2F-4268-832F-E14CA2A77FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05CDBDE5-44DD-4DCB-BE4F-47CAE7D9E2AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5F8DEAEB-D01B-40FD-9B22-FE545AAAE5E0}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{70012DFB-3ED2-4480-A500-77537AF2BC66}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="134">
   <si>
     <t>Población según el tiempo de diagnóstico del enfermedad crónica de pulmón en 2015 (Tasa respuesta: 1,61%)</t>
   </si>
@@ -107,7 +107,7 @@
     <t>72,01%</t>
   </si>
   <si>
-    <t>33,12%</t>
+    <t>32,85%</t>
   </si>
   <si>
     <t>90,47%</t>
@@ -119,16 +119,16 @@
     <t>82,13%</t>
   </si>
   <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
   </si>
   <si>
     <t>27,99%</t>
   </si>
   <si>
-    <t>66,88%</t>
+    <t>67,15%</t>
   </si>
   <si>
     <t>9,53%</t>
@@ -140,10 +140,10 @@
     <t>17,87%</t>
   </si>
   <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -161,139 +161,142 @@
     <t>75,98%</t>
   </si>
   <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
   </si>
   <si>
     <t>60,25%</t>
   </si>
   <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
   </si>
   <si>
     <t>69,73%</t>
   </si>
   <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
   </si>
   <si>
     <t>14,76%</t>
   </si>
   <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
   </si>
   <si>
     <t>31,29%</t>
   </si>
   <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
   </si>
   <si>
     <t>21,32%</t>
   </si>
   <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
     <t>9,26%</t>
   </si>
   <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
     <t>39,9%</t>
   </si>
   <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
     <t>29,86%</t>
   </si>
   <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
   </si>
   <si>
     <t>10,9%</t>
   </si>
   <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
   </si>
   <si>
     <t>8,88%</t>
   </si>
   <si>
-    <t>26,5%</t>
+    <t>28,55%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -302,10 +305,10 @@
     <t>83,33%</t>
   </si>
   <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
   </si>
   <si>
     <t>82,79%</t>
@@ -317,19 +320,19 @@
     <t>83,19%</t>
   </si>
   <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
   </si>
   <si>
     <t>16,67%</t>
   </si>
   <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
   </si>
   <si>
     <t>17,21%</t>
@@ -341,10 +344,10 @@
     <t>16,81%</t>
   </si>
   <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
   </si>
   <si>
     <t>7,93%</t>
@@ -359,70 +362,70 @@
     <t>69,29%</t>
   </si>
   <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
   </si>
   <si>
     <t>78,26%</t>
   </si>
   <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
   </si>
   <si>
     <t>72,96%</t>
   </si>
   <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
   </si>
   <si>
     <t>25,58%</t>
   </si>
   <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
   </si>
   <si>
     <t>16,92%</t>
   </si>
   <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
   </si>
   <si>
     <t>22,03%</t>
   </si>
   <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
   </si>
   <si>
     <t>5,13%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
   </si>
   <si>
     <t>4,82%</t>
   </si>
   <si>
-    <t>15,06%</t>
+    <t>15,72%</t>
   </si>
   <si>
     <t>5,0%</t>
@@ -431,7 +434,7 @@
     <t>1,86%</t>
   </si>
   <si>
-    <t>10,99%</t>
+    <t>11,48%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -846,7 +849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F123FFB9-89E2-471D-B528-34CEE2C68146}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E44C7BB-DF85-4F33-8D1B-C3DAD2B517AC}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1476,13 +1479,13 @@
         <v>2012</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -1491,13 +1494,13 @@
         <v>1210</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -1506,13 +1509,13 @@
         <v>3222</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1568,7 +1571,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1580,13 +1583,13 @@
         <v>4183</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -1595,10 +1598,10 @@
         <v>11947</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -1610,13 +1613,13 @@
         <v>16130</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1631,13 +1634,13 @@
         <v>6876</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -1646,13 +1649,13 @@
         <v>985</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -1661,13 +1664,13 @@
         <v>7861</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1682,13 +1685,13 @@
         <v>1352</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -1697,13 +1700,13 @@
         <v>985</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -1712,13 +1715,13 @@
         <v>2337</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1774,7 +1777,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1786,13 +1789,13 @@
         <v>18079</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -1801,10 +1804,10 @@
         <v>6425</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>13</v>
@@ -1816,13 +1819,13 @@
         <v>24504</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1837,13 +1840,13 @@
         <v>3617</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -1852,13 +1855,13 @@
         <v>1336</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -1867,13 +1870,13 @@
         <v>4953</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1894,7 +1897,7 @@
         <v>18</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -1909,7 +1912,7 @@
         <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -1924,7 +1927,7 @@
         <v>18</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1992,13 +1995,13 @@
         <v>45440</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H24" s="7">
         <v>32</v>
@@ -2007,13 +2010,13 @@
         <v>35621</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M24" s="7">
         <v>78</v>
@@ -2022,13 +2025,13 @@
         <v>81062</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2043,13 +2046,13 @@
         <v>16778</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -2058,13 +2061,13 @@
         <v>7703</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M25" s="7">
         <v>23</v>
@@ -2073,13 +2076,13 @@
         <v>24481</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2094,13 +2097,13 @@
         <v>3364</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -2109,13 +2112,13 @@
         <v>2195</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -2124,13 +2127,13 @@
         <v>5559</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2186,7 +2189,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C08-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C08-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05CDBDE5-44DD-4DCB-BE4F-47CAE7D9E2AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{36103912-BE75-4CEA-8851-B573A4A6085B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{70012DFB-3ED2-4480-A500-77537AF2BC66}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{921DE93B-D495-488C-8156-CC814645D551}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="134">
-  <si>
-    <t>Población según el tiempo de diagnóstico del enfermedad crónica de pulmón en 2015 (Tasa respuesta: 1,61%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="132">
+  <si>
+    <t>Población según el tiempo de diagnóstico del enfermedad crónica de pulmón en 2016 (Tasa respuesta: 1,61%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Mas de 4 años</t>
@@ -101,49 +101,43 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>72,01%</t>
   </si>
   <si>
-    <t>32,85%</t>
+    <t>32,39%</t>
   </si>
   <si>
     <t>90,47%</t>
   </si>
   <si>
-    <t>49,72%</t>
+    <t>58,18%</t>
   </si>
   <si>
     <t>82,13%</t>
   </si>
   <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
+    <t>58,11%</t>
   </si>
   <si>
     <t>27,99%</t>
   </si>
   <si>
-    <t>67,15%</t>
+    <t>67,61%</t>
   </si>
   <si>
     <t>9,53%</t>
   </si>
   <si>
-    <t>50,28%</t>
+    <t>41,82%</t>
   </si>
   <si>
     <t>17,87%</t>
   </si>
   <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
+    <t>41,89%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -155,148 +149,148 @@
     <t>10,53%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>75,98%</t>
   </si>
   <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
   </si>
   <si>
     <t>60,25%</t>
   </si>
   <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
   </si>
   <si>
     <t>69,73%</t>
   </si>
   <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
   </si>
   <si>
     <t>14,76%</t>
   </si>
   <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
   </si>
   <si>
     <t>31,29%</t>
   </si>
   <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
   </si>
   <si>
     <t>21,32%</t>
   </si>
   <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
   </si>
   <si>
     <t>9,26%</t>
   </si>
   <si>
-    <t>28,9%</t>
+    <t>28,4%</t>
   </si>
   <si>
     <t>8,46%</t>
   </si>
   <si>
-    <t>33,99%</t>
+    <t>41,16%</t>
   </si>
   <si>
     <t>8,95%</t>
   </si>
   <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>33,7%</t>
   </si>
   <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
   </si>
   <si>
     <t>85,85%</t>
   </si>
   <si>
-    <t>52,35%</t>
+    <t>56,32%</t>
   </si>
   <si>
     <t>61,27%</t>
   </si>
   <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
   </si>
   <si>
     <t>55,4%</t>
   </si>
   <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
   </si>
   <si>
     <t>7,08%</t>
   </si>
   <si>
-    <t>39,9%</t>
+    <t>37,19%</t>
   </si>
   <si>
     <t>29,86%</t>
   </si>
   <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
   </si>
   <si>
     <t>10,9%</t>
   </si>
   <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
   </si>
   <si>
     <t>8,88%</t>
   </si>
   <si>
-    <t>28,55%</t>
+    <t>30,49%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -305,49 +299,49 @@
     <t>83,33%</t>
   </si>
   <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
   </si>
   <si>
     <t>82,79%</t>
   </si>
   <si>
-    <t>36,62%</t>
+    <t>29,92%</t>
   </si>
   <si>
     <t>83,19%</t>
   </si>
   <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
   </si>
   <si>
     <t>16,67%</t>
   </si>
   <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
   </si>
   <si>
     <t>17,21%</t>
   </si>
   <si>
-    <t>63,38%</t>
+    <t>70,08%</t>
   </si>
   <si>
     <t>16,81%</t>
   </si>
   <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
   </si>
   <si>
     <t>7,93%</t>
@@ -362,79 +356,79 @@
     <t>69,29%</t>
   </si>
   <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
   </si>
   <si>
     <t>78,26%</t>
   </si>
   <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
   </si>
   <si>
     <t>72,96%</t>
   </si>
   <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
   </si>
   <si>
     <t>25,58%</t>
   </si>
   <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
   </si>
   <si>
     <t>16,92%</t>
   </si>
   <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
   </si>
   <si>
     <t>22,03%</t>
   </si>
   <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
   </si>
   <si>
     <t>5,13%</t>
   </si>
   <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
   </si>
   <si>
     <t>4,82%</t>
   </si>
   <si>
-    <t>15,72%</t>
+    <t>16,53%</t>
   </si>
   <si>
     <t>5,0%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -849,7 +843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E44C7BB-DF85-4F33-8D1B-C3DAD2B517AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F06023-958C-43AB-9A85-56D35CBE0443}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1207,7 +1201,7 @@
         <v>27</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1222,13 +1216,13 @@
         <v>2201</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -1237,13 +1231,13 @@
         <v>910</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -1252,13 +1246,13 @@
         <v>3111</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1279,7 +1273,7 @@
         <v>18</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1294,7 +1288,7 @@
         <v>18</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -1309,7 +1303,7 @@
         <v>18</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1365,7 +1359,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1377,13 +1371,13 @@
         <v>16503</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
@@ -1392,13 +1386,13 @@
         <v>8613</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M12" s="7">
         <v>24</v>
@@ -1407,13 +1401,13 @@
         <v>25116</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1428,13 +1422,13 @@
         <v>3206</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -1443,13 +1437,13 @@
         <v>4473</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -1458,13 +1452,13 @@
         <v>7679</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1479,13 +1473,13 @@
         <v>2012</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -1494,13 +1488,13 @@
         <v>1210</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -1509,13 +1503,13 @@
         <v>3222</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1571,7 +1565,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1583,13 +1577,13 @@
         <v>4183</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -1598,10 +1592,10 @@
         <v>11947</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -1613,13 +1607,13 @@
         <v>16130</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1634,13 +1628,13 @@
         <v>6876</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -1649,13 +1643,13 @@
         <v>985</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -1664,13 +1658,13 @@
         <v>7861</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1685,13 +1679,13 @@
         <v>1352</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -1700,13 +1694,13 @@
         <v>985</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -1715,13 +1709,13 @@
         <v>2337</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1777,7 +1771,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1789,13 +1783,13 @@
         <v>18079</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -1804,10 +1798,10 @@
         <v>6425</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>13</v>
@@ -1819,13 +1813,13 @@
         <v>24504</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1840,13 +1834,13 @@
         <v>3617</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -1855,13 +1849,13 @@
         <v>1336</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -1870,13 +1864,13 @@
         <v>4953</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1897,7 +1891,7 @@
         <v>18</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -1912,7 +1906,7 @@
         <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -1927,7 +1921,7 @@
         <v>18</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1995,13 +1989,13 @@
         <v>45440</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H24" s="7">
         <v>32</v>
@@ -2010,13 +2004,13 @@
         <v>35621</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M24" s="7">
         <v>78</v>
@@ -2025,13 +2019,13 @@
         <v>81062</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2046,13 +2040,13 @@
         <v>16778</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -2061,13 +2055,13 @@
         <v>7703</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M25" s="7">
         <v>23</v>
@@ -2076,13 +2070,13 @@
         <v>24481</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2097,13 +2091,13 @@
         <v>3364</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -2112,13 +2106,13 @@
         <v>2195</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -2127,13 +2121,13 @@
         <v>5559</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2189,7 +2183,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
